--- a/src/test/resources/com/Excel/Filters.xlsx
+++ b/src/test/resources/com/Excel/Filters.xlsx
@@ -3,19 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/madhamshetty-sravani_madhamshetty-sravani_capgemini_com/Documents/Desktop/Training/SprintMagicBricks/MagicBricks/src/test/resources/com/Excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{1BCC3AB4-9236-4958-8744-AB462740CD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC8CA415-4E63-4FEE-B327-691E6AE52E3C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{59DB1F32-B23E-4C82-9018-8975BFBF305B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B97C0740-67BC-4763-9436-8045808756B7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{B97C0740-67BC-4763-9436-8045808756B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +33,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hyderabad</t>
   </si>
   <si>
     <t>chennai</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Pune</t>
   </si>
 </sst>
 </file>
@@ -415,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D0BA13-A78A-4485-B9B8-09095FA2DDD2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,6 +445,31 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B9A8A1-15A8-40CD-8A03-0FCD9C3FCDB5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{76a2ae5a-9f00-4f6b-95ed-5d33d77c4d61}" enabled="0" method="" siteId="{76a2ae5a-9f00-4f6b-95ed-5d33d77c4d61}" removed="1"/>
